--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayalakshmi B\git\Datadrivenframework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E142A780-A2EB-4CCB-9629-A2C07CADBC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A49535-EA07-417A-A01C-A92879583E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{BB187393-578C-44B2-AF8F-685312353313}"/>
+    <workbookView xWindow="4092" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{BB187393-578C-44B2-AF8F-685312353313}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -43,6 +37,18 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>rtg</t>
+  </si>
+  <si>
+    <t>drt</t>
+  </si>
+  <si>
+    <t>dr</t>
   </si>
 </sst>
 </file>
@@ -58,18 +64,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF870F-A4D1-49DF-A974-E03C52FA57CE}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,53 +412,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
